--- a/afcg/dbfields.xlsx
+++ b/afcg/dbfields.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honey\Desktop\AserT_Dodoso_Local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\user\afcg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,6 @@
   <sheets>
     <sheet name="field" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="db-fields" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="663">
   <si>
     <t>location_1_1_1_A_a</t>
   </si>
@@ -644,36 +636,6 @@
     <t>front_office_3_1_1_text</t>
   </si>
   <si>
-    <t>front_office_2_4_1_B_a</t>
-  </si>
-  <si>
-    <t>front_office_2_4_1_B_cm</t>
-  </si>
-  <si>
-    <t>front_office_2_4_1_B_b</t>
-  </si>
-  <si>
-    <t>front_office_2_4_1_B_c</t>
-  </si>
-  <si>
-    <t>front_office_2_4_1_text</t>
-  </si>
-  <si>
-    <t>front_office_1_2_1_D_b_cm</t>
-  </si>
-  <si>
-    <t>front_office_1_2_1_D_c</t>
-  </si>
-  <si>
-    <t>front_office_1_2_1_D_c_cm</t>
-  </si>
-  <si>
-    <t>front_office_1_2_1_D_d</t>
-  </si>
-  <si>
-    <t>front_office_1_2_1_D_d_cm</t>
-  </si>
-  <si>
     <t>front_office_3_1_1_A_a</t>
   </si>
   <si>
@@ -1101,6 +1063,957 @@
   </si>
   <si>
     <t>QN 4.</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_text</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_A_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_A_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_A_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_A</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_B_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_B_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_B_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_B_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_B</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_C_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_C_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_C_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_C</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_D_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_D_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_D_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_D_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_D</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_E_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_E_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_E_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_E_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_E</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_F_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_F_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_F_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_F_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_F</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_G_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_G_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_G_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_G_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_1_1_G</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_2_1_text</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_2_1_A_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_2_1_A_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_2_1_A_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_2_1_A</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_2_1_A_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_text</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_A_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_A_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_A_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_A</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_B_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_B_a_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_B_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_B_b_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_B_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_B_c_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_B_d</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_B_d_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_B</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_C_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_C_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_C_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_C_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_3_1_C</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_text</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_A_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_A_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_A_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_A_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_A</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_B_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_B_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_B_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_B</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_C_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_C_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_C_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_C_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_C</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_D_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_D_a_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_D_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_D_b_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_E_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_E_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_E_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_E_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_E</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_F_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_F_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_F_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_F_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_4_1_F</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_text</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_A_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_A_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_A_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_A_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_A</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_B_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_B_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_B_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_B_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_5_1_B</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_text</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_A_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_A_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_A_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_A</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_B_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_B_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_B_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_B_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_B</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_C_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_C_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_C_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_C_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_C</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_D_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_D_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_D_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_D</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_E_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_E_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_E_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_E_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_E</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_F_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_F_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_F_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_F_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_F</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_G_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_G_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_G_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_G_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_6_1_G</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_text</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_A_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_A_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_A_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_A</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_B_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_B_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_B_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_B</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_C_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_C_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_C_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_C_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_7_1_C</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_8_1_text</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_8_1_A_a</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_8_1_A_cm</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_8_1_A_b</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_8_1_A_c</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_8_1_A_d</t>
+  </si>
+  <si>
+    <t>lobby_lounge_other_public_areas_4_8_1_A</t>
+  </si>
+  <si>
+    <t>QN 5.</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_text</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_A_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_A_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_A_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_A</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_B_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_B_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_B_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_B_c</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_B</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_C_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_C_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_C_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_C_c</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_C</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_D_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_D_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_D_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_D_c</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_D</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_E_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_E_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_E_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_E_c</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_E</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_F_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_F_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_F_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_F_c</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_F</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_G_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_G_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_G_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_G_c</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_G</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_H_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_H_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_H_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_H</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_I_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_I_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_I_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_I</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_J_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_J_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_J_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_J</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_K_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_K_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_K_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_K</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_L_a</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_L_cm</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_L_b</t>
+  </si>
+  <si>
+    <t>function_rooms_5_1_1_L</t>
+  </si>
+  <si>
+    <t>QN 6.</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_text</t>
+  </si>
+  <si>
+    <t>restaurants_2_4_1_text</t>
+  </si>
+  <si>
+    <t>restaurants_2_4_1_B_a</t>
+  </si>
+  <si>
+    <t>restaurants_2_4_1_B_cm</t>
+  </si>
+  <si>
+    <t>restaurants_2_4_1_B_b</t>
+  </si>
+  <si>
+    <t>restaurants_2_4_1_B_c</t>
+  </si>
+  <si>
+    <t>restaurants_4_4_1_D_a</t>
+  </si>
+  <si>
+    <t>restaurants_4_4_1_D_a_cm</t>
+  </si>
+  <si>
+    <t>restaurants_4_4_1_D_b</t>
+  </si>
+  <si>
+    <t>restaurants_4_4_1_D_b_cm</t>
+  </si>
+  <si>
+    <t>restaurants_4_4_1_D_c</t>
+  </si>
+  <si>
+    <t>restaurants_4_4_1_D_c_cm</t>
+  </si>
+  <si>
+    <t>restaurants_1_2_1_D_b_cm</t>
+  </si>
+  <si>
+    <t>restaurants_1_2_1_D_c</t>
+  </si>
+  <si>
+    <t>restaurants_1_2_1_D_c_cm</t>
+  </si>
+  <si>
+    <t>restaurants_1_2_1_D_d</t>
+  </si>
+  <si>
+    <t>restaurants_1_2_1_D_d_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_A_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_A_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_A_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_A</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_B_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_B_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_B_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_B</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_C_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_C_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_C_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_C_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_C</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_D_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_D_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_D_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_D_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_D</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_E_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_E_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_E_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_E_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_1_1_E</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_text</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_A_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_A_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_A_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_A_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_A</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_B_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_B_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_B_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_B_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_B</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_C_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_C_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_C_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_C_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_C</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_D_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_D_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_D_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_D_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_D</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_E_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_E_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_E_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_E_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_E</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_F_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_F_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_F_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_F_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_F</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_G_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_G_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_G_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_G_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_G</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_H_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_H_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_H_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_H_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_I_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_I_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_I_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_I_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_2_1_I</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_text</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_A_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_A_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_A_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_A_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_A</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_B_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_B_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_B_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_B_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_B</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_C_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_C_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_C_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_C_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_C</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_D_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_D_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_D_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_D_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_3_1_D</t>
   </si>
 </sst>
 </file>
@@ -1442,18 +2355,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D352"/>
+  <dimension ref="A1:D653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="F366" sqref="F366"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="B632" sqref="B632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="26.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="23.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2444,120 +3357,120 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
@@ -2567,140 +3480,140 @@
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
@@ -2710,48 +3623,48 @@
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
@@ -2761,50 +3674,50 @@
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
@@ -2814,71 +3727,71 @@
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
@@ -2886,20 +3799,20 @@
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
@@ -2909,43 +3822,43 @@
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
@@ -2955,61 +3868,61 @@
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
@@ -3019,73 +3932,73 @@
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -3095,61 +4008,61 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,7 +4073,1457 @@
     </row>
     <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B353" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B354" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B355" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B357" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B358" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B359" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B360" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D360" s="2" t="s">
         <v>355</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B362" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B363" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B364" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B366" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B367" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B368" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B369" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B371" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B372" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B373" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B374" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B376" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B377" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B378" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B379" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B381" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B382" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B383" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B384" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B385" s="4"/>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B386" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B387" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B388" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B389" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B390" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B391" s="4"/>
+      <c r="C391" s="4"/>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B392" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B393" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B394" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B395" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B397" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B398" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B399" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B400" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B401" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B402" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B403" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B404" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B406" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B407" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B408" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B409" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B410" s="4"/>
+      <c r="C410" s="4"/>
+      <c r="D410" s="4"/>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B411" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B412" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B413" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B414" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B415" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B417" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B418" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B419" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B421" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B422" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B423" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B424" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B426" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C426"/>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B427" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C427"/>
+      <c r="D427" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B428" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C428"/>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B429" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C429"/>
+      <c r="D429" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B431" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B432" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B433" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B434" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B436" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B437" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B438" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B439" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B440" s="4"/>
+      <c r="C440" s="4"/>
+      <c r="D440" s="4"/>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B441" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B442" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B443" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B444" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B445" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B447" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B448" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B449" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B450" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B451" s="4"/>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4"/>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B452" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B453" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B454" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B455" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B457" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B458" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B459" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B460" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B462" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B463" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B464" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B465" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B467" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B468" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B469" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B471" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B472" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B473" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B474" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B476" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B477" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B478" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B479" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B481" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B482" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B483" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B484" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B485" s="4"/>
+      <c r="C485" s="4"/>
+      <c r="D485" s="4"/>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B486" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B487" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B488" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B489" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B491" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B492" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B493" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B495" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B496" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B497" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B498" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B499" s="4"/>
+      <c r="C499" s="4"/>
+      <c r="D499" s="4"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B500" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B501" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B502" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B503" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B504" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B505" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="4"/>
+      <c r="B506" s="4"/>
+      <c r="C506" s="4"/>
+      <c r="D506" s="4"/>
+    </row>
+    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A508" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B509" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B510" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B511" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="513" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B513" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B514" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B515" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B516" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B518" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B519" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B520" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="521" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B521" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="523" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B523" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="524" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B524" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B525" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="526" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B526" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="528" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B528" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B529" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B530" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B531" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B533" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B534" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B535" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B536" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B538" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B539" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B540" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B541" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B543" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B544" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B545" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B547" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B548" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B549" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B551" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B552" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B553" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B555" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B556" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B557" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B559" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B560" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B561" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="4"/>
+      <c r="B562" s="4"/>
+      <c r="C562" s="4"/>
+      <c r="D562" s="4"/>
+    </row>
+    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A564" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B565" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B566" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B567" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B569" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B570" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B571" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B573" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B574" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B575" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B576" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B578" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B579" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B580" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B581" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B583" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B584" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B585" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B586" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B587" s="4"/>
+      <c r="C587" s="4"/>
+      <c r="D587" s="4"/>
+    </row>
+    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B588" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B589" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B590" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B591" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B592" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B594" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B595" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B596" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B597" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B599" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B600" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B601" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B602" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B604" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B605" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B606" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B607" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B609" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B610" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B611" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B612" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B614" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B615" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B616" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B617" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B619" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="620" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B620" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B621" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B622" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B624" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B625" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B626" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B627" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B629" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B630" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B631" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B632" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B633" s="4"/>
+      <c r="C633" s="4"/>
+      <c r="D633" s="4"/>
+    </row>
+    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B634" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B635" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B636" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B637" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B638" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B640" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B641" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B642" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B643" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B645" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B646" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B647" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B648" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B650" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B651" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B652" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B653" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -3169,228 +5532,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H22"/>
+  <dimension ref="B3:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E22"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>340</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>211</v>
+        <v>572</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>351</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>212</v>
+        <v>573</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>352</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>353</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/afcg/dbfields.xlsx
+++ b/afcg/dbfields.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\user\afcg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honey\Desktop\AserT_Dodoso_Local\AserT_Dodoso\afcg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="791">
   <si>
     <t>location_1_1_1_A_a</t>
   </si>
@@ -1716,39 +1716,6 @@
     <t>restaurants_2_4_1_B_c</t>
   </si>
   <si>
-    <t>restaurants_4_4_1_D_a</t>
-  </si>
-  <si>
-    <t>restaurants_4_4_1_D_a_cm</t>
-  </si>
-  <si>
-    <t>restaurants_4_4_1_D_b</t>
-  </si>
-  <si>
-    <t>restaurants_4_4_1_D_b_cm</t>
-  </si>
-  <si>
-    <t>restaurants_4_4_1_D_c</t>
-  </si>
-  <si>
-    <t>restaurants_4_4_1_D_c_cm</t>
-  </si>
-  <si>
-    <t>restaurants_1_2_1_D_b_cm</t>
-  </si>
-  <si>
-    <t>restaurants_1_2_1_D_c</t>
-  </si>
-  <si>
-    <t>restaurants_1_2_1_D_c_cm</t>
-  </si>
-  <si>
-    <t>restaurants_1_2_1_D_d</t>
-  </si>
-  <si>
-    <t>restaurants_1_2_1_D_d_cm</t>
-  </si>
-  <si>
     <t>restaurants_6_1_1_A_a</t>
   </si>
   <si>
@@ -2014,13 +1981,430 @@
   </si>
   <si>
     <t>restaurants_6_3_1_D</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_text</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_A_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_A_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_A_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_A</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_B_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_B_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_B_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_B</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_C_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_C_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_C_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_C_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_C</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_D_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_D_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_D_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_D_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_4_1_D</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_text</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_A_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_A_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_A_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_A</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_B_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_B_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_B_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_B</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_C_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_C_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_C_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_C_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_C</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_D_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_D_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_D_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_D_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_D</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_E_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_E_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_E_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_E</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_F_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_F_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_F_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_F_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_F</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_G_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_G_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_G_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_G_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_G</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_H_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_H_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_H_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_H_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_5_1_H</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_text</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_A_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_A_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_A_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_A</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_B_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_B_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_B_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_B_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_B</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_C_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_C_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_C_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_C_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_C</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_D_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_D_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_D_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_D_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_D</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_E_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_E_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_E_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_E_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_E</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_F_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_F_a_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_F_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_F_b_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_F_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_F_c_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_G_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_G_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_G_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_G_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_F</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_G</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_H_b_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_H_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_H_c_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_H_d</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_H_d_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_H</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_H_a_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_H_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_H_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_I_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_I_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_I_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_I_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_I</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_J_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_J_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_J_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_J_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_6_1_J</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_text</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_A_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_A_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_A_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_A</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_B_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_B_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_B_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_B</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_C_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_C_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_C_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_C_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_7_1_C</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_text</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_A_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_A_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_A_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_A_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_B_a</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_B_cm</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_B_b</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_B_c</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_B</t>
+  </si>
+  <si>
+    <t>restaurants_6_8_1_A</t>
+  </si>
+  <si>
+    <t>QN 7.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2039,6 +2423,11 @@
       <color theme="1"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2067,7 +2456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2075,6 +2464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2355,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D653"/>
+  <dimension ref="A1:D792"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="B632" sqref="B632"/>
+    <sheetView tabSelected="1" topLeftCell="A776" workbookViewId="0">
+      <selection activeCell="A792" sqref="A792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5107,107 +5499,107 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B566" s="1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B567" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B569" s="1" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B570" s="1" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B571" s="1" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B573" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B574" s="1" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B575" s="1" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B576" s="1" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="1" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="1" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="1" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="1" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="1" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="1" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="587" spans="2:4" x14ac:dyDescent="0.25">
@@ -5217,211 +5609,211 @@
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="1" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="1" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="1" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="1" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="1" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
     </row>
     <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="1" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="1" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="1" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="1" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="1" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="1" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="1" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="1" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="1" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="1" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="1" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="1" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="1" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="1" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="1" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="1" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="1" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="1" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="1" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="1" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="1" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="1" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="1" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="1" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="1" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="1" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="633" spans="2:4" x14ac:dyDescent="0.25">
@@ -5431,99 +5823,764 @@
     </row>
     <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="1" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
     </row>
     <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="1" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="1" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
     </row>
     <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="1" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="1" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="1" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="1" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="1" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="1" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="1" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="1" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="1" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B654" s="4"/>
+      <c r="C654" s="4"/>
+      <c r="D654" s="4"/>
+    </row>
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B655" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B656" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B657" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="658" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B658" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="660" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B660" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="661" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B661" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="662" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B662" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="664" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B664" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D653" s="2" t="s">
+    </row>
+    <row r="665" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B665" s="1" t="s">
         <v>662</v>
+      </c>
+    </row>
+    <row r="666" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B666" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="667" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B667" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="669" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B669" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="670" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B670" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="671" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B671" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="672" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B672" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="673" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B673" s="4"/>
+      <c r="C673" s="4"/>
+      <c r="D673" s="4"/>
+    </row>
+    <row r="674" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B674" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="675" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B675" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="676" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B676" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="677" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B677" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="679" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B679" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="680" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B680" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="681" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B681" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="682" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B682" s="1"/>
+    </row>
+    <row r="683" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B683" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="684" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B684" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="685" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B685" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="686" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B686" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="688" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B688" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="689" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B689" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="690" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B690" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="691" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B691" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="693" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B693" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="694" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B694" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="695" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B695" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="697" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B697" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="698" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B698" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="699" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B699" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="700" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B700" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="702" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B702" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="703" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B703" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="704" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B704" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="705" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B705" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="707" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B707" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="708" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B708" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="709" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B709" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="710" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B710" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="711" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B711" s="4"/>
+      <c r="C711" s="4"/>
+      <c r="D711" s="4"/>
+    </row>
+    <row r="712" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B712" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="713" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B713" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="714" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B714" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="715" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B715" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="717" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B717" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="718" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B718" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="719" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B719" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="720" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B720" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="722" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B722" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="723" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B723" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="724" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B724" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="725" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B725" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="727" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B727" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="728" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B728" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="729" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B729" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="730" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B730" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="732" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B732" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="733" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B733" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="734" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B734" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="735" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B735" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="737" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B737" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="738" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B738" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="739" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B739" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="740" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B740" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="741" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B741" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="742" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B742" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="744" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B744" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="745" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B745" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="746" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B746" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="747" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B747" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="749" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B749" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="750" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B750" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="751" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B751" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="752" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B752" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="753" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B753" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="754" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B754" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="756" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B756" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B757" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B758" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B759" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B761" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B762" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B763" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B764" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="765" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B765" s="4"/>
+      <c r="C765" s="4"/>
+      <c r="D765" s="4"/>
+    </row>
+    <row r="766" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B766" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B767" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B768" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B769" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B771" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B772" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B773" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B775" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B776" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B777" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B778" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="779" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B779" s="4"/>
+      <c r="C779" s="4"/>
+      <c r="D779" s="4"/>
+    </row>
+    <row r="780" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B780" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B781" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B782" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B783" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B784" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B786" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B787" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B788" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B789" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790" s="4"/>
+      <c r="B790" s="4"/>
+      <c r="C790" s="4"/>
+      <c r="D790" s="4"/>
+    </row>
+    <row r="792" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A792" s="3" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -5550,7 +6607,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>658</v>
+        <v>784</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>558</v>
@@ -5558,7 +6615,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>659</v>
+        <v>785</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>559</v>
@@ -5566,7 +6623,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>660</v>
+        <v>786</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>560</v>
@@ -5574,7 +6631,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>661</v>
+        <v>787</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>561</v>
@@ -5595,68 +6652,68 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>563</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>564</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>565</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
-        <v>566</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>567</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>568</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>569</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>570</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>571</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>572</v>
+        <v>749</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>578</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>573</v>
+        <v>750</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>579</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>580</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>

--- a/afcg/dbfields.xlsx
+++ b/afcg/dbfields.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="995">
   <si>
     <t>location_1_1_1_A_a</t>
   </si>
@@ -747,9 +747,6 @@
     <t>front_office_3_2_1_C_c</t>
   </si>
   <si>
-    <t>front_office_3_2_1_C</t>
-  </si>
-  <si>
     <t>front_office_3_2_1_B_b_cm</t>
   </si>
   <si>
@@ -786,9 +783,6 @@
     <t>front_office_3_2_1_D_c_cm</t>
   </si>
   <si>
-    <t>front_office_3_2_1_D</t>
-  </si>
-  <si>
     <t>front_office_3_2_1_D_d</t>
   </si>
   <si>
@@ -852,9 +846,6 @@
     <t>front_office_3_4_1_A_d_cm</t>
   </si>
   <si>
-    <t>front_office_3_4_1_A</t>
-  </si>
-  <si>
     <t>front_office_3_5_1_text</t>
   </si>
   <si>
@@ -999,9 +990,6 @@
     <t>front_office_3_8_1_A_c_cm</t>
   </si>
   <si>
-    <t>front_office_3_8_1_A</t>
-  </si>
-  <si>
     <t>front_office_3_8_1_B_a</t>
   </si>
   <si>
@@ -1224,9 +1212,6 @@
     <t>lobby_lounge_other_public_areas_4_3_1_B_d_cm</t>
   </si>
   <si>
-    <t>lobby_lounge_other_public_areas_4_3_1_B</t>
-  </si>
-  <si>
     <t>lobby_lounge_other_public_areas_4_3_1_C_a</t>
   </si>
   <si>
@@ -1701,21 +1686,6 @@
     <t>restaurants_6_1_1_text</t>
   </si>
   <si>
-    <t>restaurants_2_4_1_text</t>
-  </si>
-  <si>
-    <t>restaurants_2_4_1_B_a</t>
-  </si>
-  <si>
-    <t>restaurants_2_4_1_B_cm</t>
-  </si>
-  <si>
-    <t>restaurants_2_4_1_B_b</t>
-  </si>
-  <si>
-    <t>restaurants_2_4_1_B_c</t>
-  </si>
-  <si>
     <t>restaurants_6_1_1_A_a</t>
   </si>
   <si>
@@ -2259,9 +2229,6 @@
     <t>restaurants_6_6_1_G_c</t>
   </si>
   <si>
-    <t>restaurants_6_6_1_F</t>
-  </si>
-  <si>
     <t>restaurants_6_6_1_G</t>
   </si>
   <si>
@@ -2274,15 +2241,6 @@
     <t>restaurants_6_6_1_H_c_cm</t>
   </si>
   <si>
-    <t>restaurants_6_6_1_H_d</t>
-  </si>
-  <si>
-    <t>restaurants_6_6_1_H_d_cm</t>
-  </si>
-  <si>
-    <t>restaurants_6_6_1_H</t>
-  </si>
-  <si>
     <t>restaurants_6_6_1_H_a_cm</t>
   </si>
   <si>
@@ -2398,6 +2356,660 @@
   </si>
   <si>
     <t>QN 7.</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_text</t>
+  </si>
+  <si>
+    <t>bar_2_4_1_text</t>
+  </si>
+  <si>
+    <t>bar_2_4_1_B_a</t>
+  </si>
+  <si>
+    <t>bar_2_4_1_B_cm</t>
+  </si>
+  <si>
+    <t>bar_2_4_1_B_b</t>
+  </si>
+  <si>
+    <t>bar_2_4_1_B_c</t>
+  </si>
+  <si>
+    <t>bar_6_6_1_H_b_cm</t>
+  </si>
+  <si>
+    <t>bar_6_6_1_H_c</t>
+  </si>
+  <si>
+    <t>bar_6_6_1_H_c_cm</t>
+  </si>
+  <si>
+    <t>bar_6_6_1_H_d</t>
+  </si>
+  <si>
+    <t>bar_6_6_1_H_d_cm</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_A_a</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_A_cm</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_A_b</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_A</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_B_a</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_B_cm</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_B_b</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_B</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_C_a</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_C_cm</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_C_b</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_C</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_D_a</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_D_a_cm</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_D_b</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_D_b_cm</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_D_c</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_D_c_cm</t>
+  </si>
+  <si>
+    <t>front_office_3_8_1_A_d</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_E_a</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_E_cm</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_E_b</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_E_c</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_E</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_F_a</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_F_cm</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_F_b</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_F_c</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_F</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_G_a</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_G_cm</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_G_b</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_G_c</t>
+  </si>
+  <si>
+    <t>bar_7_1_1_G</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_text</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_A_a</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_A_cm</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_A_b</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_A_c</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_A</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_B_a</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_B_cm</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_B_b</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_B</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_C_a</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_C_cm</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_C_b</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_C_c</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_C</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_D_a</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_D_cm</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_D_b</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_D_c</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_D</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_E_a</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_E_cm</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_E_b</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_E_c</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_E</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_F_a</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_F_cm</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_F_b</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_F_c</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_F_d</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_F</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_G_a</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_G_cm</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_G_b</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_G_c</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_G</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_H_a</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_H_cm</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_H_b</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_H_c</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_H</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_I_a</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_I_cm</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_I_b</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_I_c</t>
+  </si>
+  <si>
+    <t>bar_7_2_1_I</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_text</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_B_a</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_B_cm</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_B_b</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_A_a</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_A_cm</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_A_b</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_A</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_B</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_C_a</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_C_cm</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_C_b</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_C_c</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_C</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_D_a</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_D_cm</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_D_b</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_D</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_E_a</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_E_cm</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_E_b</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_E</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_F_a</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_F_cm</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_F_b</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_F_c</t>
+  </si>
+  <si>
+    <t>bar_7_3_1_F</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_text</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_A_a</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_A_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_A_b</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_B_a</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_B_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_B_b</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_B_c</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_B</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_C_a</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_C_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_C_b</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_C_c</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_C</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_D_a</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_D_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_D_b</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_D_c</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_D</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_a</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_a_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_b</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_b_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_c</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_c_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_d</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_d_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_e</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_e_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_f</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_f_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_g</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_g_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_h</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_E_h_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_F_a</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_F_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_F_b</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_F_c</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_F</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_G_a</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_G_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_G_b</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_G</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_H_a</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_H_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_H_b</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_H_c</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_H</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_I_a</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_I_cm</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_I_b</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_I_c</t>
+  </si>
+  <si>
+    <t>bar_7_4_1_I</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_text</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_A_a</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_A_cm</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_A_b</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_A_c</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_B_a</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_B_cm</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_B_b</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_B</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_A</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_C_a</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_C_cm</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_C_b</t>
+  </si>
+  <si>
+    <t>bar_7_5_1_C</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_text</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_A_a</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_A_cm</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_A_b</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_A_c</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_A</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_B_a</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_B_cm</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_B_b</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_B_c</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_B</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_C_a</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_C_cm</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_C_b</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_C_c</t>
+  </si>
+  <si>
+    <t>bar_7_6_1_C</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_text</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_A_a</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_A_cm</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_A_b</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_A_c</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_A</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_B_a</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_B_cm</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_B_b</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_B</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_C_a</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_C_cm</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_C_b</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_C_c</t>
+  </si>
+  <si>
+    <t>bar_7_7_1_C</t>
+  </si>
+  <si>
+    <t>QN 8.</t>
   </si>
 </sst>
 </file>
@@ -2456,7 +3068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2467,6 +3079,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2747,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D792"/>
+  <dimension ref="A1:D1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A776" workbookViewId="0">
-      <selection activeCell="A792" sqref="A792"/>
+    <sheetView tabSelected="1" topLeftCell="A991" workbookViewId="0">
+      <selection activeCell="B998" sqref="B998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3900,7 +4513,7 @@
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>234</v>
@@ -3913,7 +4526,7 @@
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>235</v>
@@ -3926,7 +4539,7 @@
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>236</v>
@@ -3939,7 +4552,10 @@
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
@@ -3949,7 +4565,10 @@
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
@@ -3959,53 +4578,62 @@
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
@@ -4015,48 +4643,48 @@
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
@@ -4066,50 +4694,59 @@
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>275</v>
+        <v>806</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
@@ -4119,71 +4756,71 @@
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
@@ -4191,20 +4828,20 @@
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
@@ -4214,43 +4851,43 @@
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
@@ -4260,61 +4897,61 @@
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
@@ -4324,73 +4961,79 @@
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -4400,61 +5043,61 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,161 +5108,161 @@
     </row>
     <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
@@ -4629,30 +5272,30 @@
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.25">
@@ -4662,91 +5305,100 @@
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.25">
@@ -4756,147 +5408,147 @@
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C426"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C427"/>
       <c r="D427" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C428"/>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C429"/>
       <c r="D429" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
@@ -4906,53 +5558,53 @@
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
@@ -4962,158 +5614,158 @@
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.25">
@@ -5123,66 +5775,66 @@
     </row>
     <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B498" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -5192,35 +5844,35 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B502" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B503" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B505" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,256 +5883,256 @@
     </row>
     <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B510" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B511" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B514" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B519" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B521" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B526" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="559" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B559" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="560" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B560" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B561" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -5491,115 +6143,115 @@
     </row>
     <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B566" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B567" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B569" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B570" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B571" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B573" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B574" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B575" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B576" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="587" spans="2:4" x14ac:dyDescent="0.25">
@@ -5609,211 +6261,211 @@
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="633" spans="2:4" x14ac:dyDescent="0.25">
@@ -5823,99 +6475,99 @@
     </row>
     <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="654" spans="2:4" x14ac:dyDescent="0.25">
@@ -5925,89 +6577,89 @@
     </row>
     <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="5" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="665" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B665" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="673" spans="2:4" x14ac:dyDescent="0.25">
@@ -6017,43 +6669,43 @@
     </row>
     <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B674" s="5" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B675" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B676" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B677" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="679" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B679" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B680" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="681" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B681" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="682" spans="2:4" x14ac:dyDescent="0.25">
@@ -6061,135 +6713,135 @@
     </row>
     <row r="683" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B683" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="684" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B684" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="685" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B685" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="686" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B686" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="688" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B688" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="689" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B689" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="690" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B690" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="691" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B691" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="693" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B693" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="694" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B694" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="695" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B695" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="697" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B697" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="698" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B698" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="699" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B699" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="700" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B700" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="702" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B702" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="703" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B703" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="704" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B704" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="705" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B705" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="707" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B707" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="708" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B708" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="709" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B709" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="710" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B710" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="711" spans="2:4" x14ac:dyDescent="0.25">
@@ -6199,252 +6851,264 @@
     </row>
     <row r="712" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B712" s="5" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="713" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B713" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="714" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B714" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="715" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B715" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="717" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B717" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="718" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B718" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="719" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B719" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="720" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B720" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="722" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B722" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="723" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B723" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="724" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B724" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="725" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B725" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="727" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B727" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="728" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B728" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="729" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B729" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="730" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B730" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="732" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B732" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="733" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B733" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="734" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B734" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="735" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B735" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="737" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B737" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="738" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B738" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="739" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B739" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="740" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B740" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="741" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B741" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="742" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B742" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
     </row>
     <row r="744" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="745" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="746" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B746" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="747" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B747" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
     </row>
     <row r="749" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B749" s="1" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="750" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B750" s="1" t="s">
-        <v>752</v>
+        <v>738</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="751" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B751" s="1" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
     </row>
     <row r="752" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B752" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="753" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B753" s="1" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
     </row>
     <row r="754" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B754" s="1" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
     </row>
     <row r="756" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B756" s="1" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="757" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B757" s="1" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
     </row>
     <row r="758" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B758" s="1" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
     </row>
     <row r="759" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B759" s="1" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
     </row>
     <row r="761" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B761" s="1" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="762" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B762" s="1" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="763" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B763" s="1" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
     </row>
     <row r="764" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B764" s="1" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
     </row>
     <row r="765" spans="2:4" x14ac:dyDescent="0.25">
@@ -6454,66 +7118,66 @@
     </row>
     <row r="766" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B766" s="5" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="767" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B767" s="1" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
     </row>
     <row r="768" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B768" s="1" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="769" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B769" s="1" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="771" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B771" s="1" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
     </row>
     <row r="772" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B772" s="1" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
     </row>
     <row r="773" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B773" s="1" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
     </row>
     <row r="775" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B775" s="1" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
     </row>
     <row r="776" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B776" s="1" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
     </row>
     <row r="777" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B777" s="1" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
     </row>
     <row r="778" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B778" s="1" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
     </row>
     <row r="779" spans="2:4" x14ac:dyDescent="0.25">
@@ -6523,53 +7187,53 @@
     </row>
     <row r="780" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B780" s="5" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
     </row>
     <row r="781" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B781" s="1" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
     </row>
     <row r="782" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B782" s="1" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
     </row>
     <row r="783" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B783" s="1" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
     </row>
     <row r="784" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B784" s="1" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B786" s="1" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B787" s="1" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B788" s="1" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B789" s="1" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
@@ -6580,7 +7244,1046 @@
     </row>
     <row r="792" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B792" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B793" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B794" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B795" s="1" t="s">
         <v>790</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B797" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B798" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B799" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="801" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B801" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="802" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B802" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="803" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B803" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="805" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B805" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="806" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B806" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="807" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B807" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="808" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B808" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="809" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B809" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="810" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B810" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="812" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B812" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="813" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B813" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="814" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B814" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="815" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B815" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="817" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B817" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="818" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B818" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="819" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B819" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="820" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B820" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="822" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B822" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="823" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B823" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="824" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B824" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="825" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B825" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="826" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B826" s="4"/>
+      <c r="C826" s="4"/>
+      <c r="D826" s="4"/>
+    </row>
+    <row r="827" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B827" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="828" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B828" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="829" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B829" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="830" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B830" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="831" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B831" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="833" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B833" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="834" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B834" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="835" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B835" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="836" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B836" s="1"/>
+    </row>
+    <row r="837" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B837" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="838" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B838" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="839" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B839" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="840" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B840" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="842" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B842" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="843" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B843" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="844" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B844" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="845" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B845" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="847" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B847" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="848" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B848" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="849" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B849" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="850" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B850" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="852" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B852" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="853" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B853" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="854" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B854" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="855" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B855" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="856" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B856" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="858" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B858" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="859" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B859" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="860" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B860" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="861" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B861" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="863" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B863" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="864" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B864" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="865" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B865" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="866" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B866" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="868" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B868" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="869" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B869" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="870" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B870" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="871" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B871" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="872" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B872" s="4"/>
+      <c r="C872" s="4"/>
+      <c r="D872" s="4"/>
+    </row>
+    <row r="873" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B873" s="5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="874" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B874" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="875" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B875" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="876" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B876" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="878" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B878" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="879" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B879" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="880" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B880" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D880" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="882" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B882" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="883" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B883" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="884" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B884" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="885" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B885" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="887" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B887" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="888" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B888" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="889" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B889" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="891" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B891" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="892" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B892" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="893" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B893" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="895" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B895" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="896" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B896" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="897" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B897" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="898" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B898" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D898" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="899" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B899" s="4"/>
+      <c r="C899" s="4"/>
+      <c r="D899" s="4"/>
+    </row>
+    <row r="900" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B900" s="5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="901" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B901" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="902" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B902" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="903" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B903" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="905" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B905" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="906" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B906" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="907" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B907" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D907" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="908" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B908" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="910" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B910" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="911" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B911" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="912" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B912" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="913" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B913" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="915" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B915" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="916" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B916" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="917" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B917" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="918" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B918" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D918" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="920" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B920" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="921" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B921" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="922" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B922" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="923" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B923" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="924" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B924" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="925" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B925" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="926" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B926" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="927" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B927" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="928" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B928" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="929" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B929" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="930" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B930" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="931" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B931" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="932" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B932" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="933" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B933" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="934" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B934" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="935" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B935" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="937" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B937" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="938" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B938" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="939" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B939" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="940" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B940" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="942" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B942" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="943" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B943" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="944" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B944" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D944" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="946" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B946" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="947" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B947" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="948" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B948" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="949" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B949" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D949" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="950" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B950" s="1"/>
+    </row>
+    <row r="951" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B951" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="952" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B952" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="953" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B953" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="954" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B954" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D954" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="955" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B955" s="4"/>
+      <c r="C955" s="4"/>
+      <c r="D955" s="4"/>
+    </row>
+    <row r="956" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B956" s="5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="957" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B957" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C957" s="6"/>
+      <c r="D957" s="6"/>
+    </row>
+    <row r="958" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B958" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="959" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B959" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="960" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B960" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D960" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="961" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B961" s="1"/>
+    </row>
+    <row r="962" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B962" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="963" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B963" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="964" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B964" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D964" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="966" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B966" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="967" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B967" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="968" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B968" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D968" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="969" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B969" s="4"/>
+      <c r="C969" s="4"/>
+      <c r="D969" s="4"/>
+    </row>
+    <row r="970" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B970" s="5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="971" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B971" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="972" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B972" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="973" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B973" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="974" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B974" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D974" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="976" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B976" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="977" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B977" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="978" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B978" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="979" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B979" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D979" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="981" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B981" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="982" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B982" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="983" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B983" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="984" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B984" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D984" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="985" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B985" s="4"/>
+      <c r="C985" s="4"/>
+      <c r="D985" s="4"/>
+    </row>
+    <row r="986" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B986" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="987" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B987" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="988" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B988" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="989" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B989" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="990" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B990" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D990" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="992" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B992" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B993" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B994" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D994" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B996" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B997" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B998" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B999" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D999" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000" s="4"/>
+      <c r="B1000" s="4"/>
+      <c r="C1000" s="4"/>
+      <c r="D1000" s="4"/>
+    </row>
+    <row r="1002" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1002" s="3" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -6607,40 +8310,40 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>784</v>
+        <v>989</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>558</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>785</v>
+        <v>990</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>559</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>786</v>
+        <v>991</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>560</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>787</v>
+        <v>992</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>561</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>562</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -6652,68 +8355,68 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>734</v>
+        <v>914</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>735</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>736</v>
+        <v>916</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
-        <v>737</v>
+        <v>917</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>738</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>739</v>
+        <v>919</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>746</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>747</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>748</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>749</v>
+        <v>786</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>770</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>750</v>
+        <v>787</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>771</v>
+        <v>986</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>772</v>
+        <v>987</v>
       </c>
     </row>
   </sheetData>

--- a/afcg/dbfields.xlsx
+++ b/afcg/dbfields.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1289">
   <si>
     <t>location_1_1_1_A_a</t>
   </si>
@@ -2361,36 +2361,6 @@
     <t>bar_7_1_1_text</t>
   </si>
   <si>
-    <t>bar_2_4_1_text</t>
-  </si>
-  <si>
-    <t>bar_2_4_1_B_a</t>
-  </si>
-  <si>
-    <t>bar_2_4_1_B_cm</t>
-  </si>
-  <si>
-    <t>bar_2_4_1_B_b</t>
-  </si>
-  <si>
-    <t>bar_2_4_1_B_c</t>
-  </si>
-  <si>
-    <t>bar_6_6_1_H_b_cm</t>
-  </si>
-  <si>
-    <t>bar_6_6_1_H_c</t>
-  </si>
-  <si>
-    <t>bar_6_6_1_H_c_cm</t>
-  </si>
-  <si>
-    <t>bar_6_6_1_H_d</t>
-  </si>
-  <si>
-    <t>bar_6_6_1_H_d_cm</t>
-  </si>
-  <si>
     <t>bar_7_1_1_A_a</t>
   </si>
   <si>
@@ -3010,13 +2980,925 @@
   </si>
   <si>
     <t>QN 8.</t>
+  </si>
+  <si>
+    <t>kitchen_8_1_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_2_4_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_2_4_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_2_4_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_2_4_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_2_4_1_B_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_1_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_1_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_1_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_1_1_A_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_1_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_B_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_C_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_C_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_2_1_C</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_A_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_C_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_3_1_C</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_A_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_B_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_C_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_C_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_C</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_D_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_D_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_D_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_D_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_4_1_D</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_A_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_B_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_C_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_C_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_C</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_D_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_D_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_D_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_D_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_D</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_E_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_E_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_E_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_E_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_E</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_F_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_F_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_F_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_F</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_G_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_G_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_G_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_G_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_H_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_H_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_H_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_H_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_I_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_I_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_I_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_I_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_G</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_H</t>
+  </si>
+  <si>
+    <t>kitchen_8_5_1_I</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_C_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_C</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_D_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_D_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_D_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_D</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_E_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_E_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_E_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_E</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_F_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_F_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_F_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_F</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_G_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_G_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_G_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_6_1_G</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_C_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_C_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_C</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_D_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_D_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_D_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_D_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_D</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_E_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_E_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_E_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_E_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_7_1_E</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_C_b_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_C_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_C_c_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_C_d</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_C_d_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_C_a_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_D_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_D_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_D_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_D_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_D_d</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_D</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_E_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_E_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_E_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_E</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_F_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_F_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_F_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_F</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_G_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_G_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_G_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_G</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_H_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_H_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_H_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_H_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_8_1_H</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_A_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_C_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_C</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_D_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_D_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_D_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_D_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_D</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_E_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_E_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_E_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_E_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_9_1_E</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_A_b_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_A_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_A_c_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_A_d</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_A_d_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_B_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_C_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_C</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_D_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_D_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_D_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_D</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_E_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_E_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_E_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_E</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_F_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_F_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_F_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_F_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_F</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_G_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_G_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_G_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_G_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_G</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_10_1_A_a_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_A_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_B_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_a_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_b_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_c_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_d</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_d_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_e</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_C_e_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_D_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_D_a_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_D_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_D_b_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_D_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_D_c_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_E_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_E_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_E_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_11_1_E</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_text</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_A_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_A_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_A_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_A</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_B_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_B_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_B_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_B</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_C_a</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_C_cm</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_C_b</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_C_c</t>
+  </si>
+  <si>
+    <t>kitchen_8_12_1_C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3040,6 +3922,12 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3068,7 +3956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3080,6 +3968,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3360,10 +4249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1002"/>
+  <dimension ref="A1:D1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A991" workbookViewId="0">
-      <selection activeCell="B998" sqref="B998"/>
+    <sheetView tabSelected="1" topLeftCell="A1294" workbookViewId="0">
+      <selection activeCell="A1301" sqref="A1301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4746,7 +5635,7 @@
         <v>272</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
@@ -7252,164 +8141,164 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B793" s="1" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B794" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B795" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B797" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B798" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B799" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="801" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B801" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="802" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B802" s="1" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="803" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B803" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="805" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B805" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="806" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B806" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="807" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B807" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="808" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B808" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="809" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B809" s="1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="810" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B810" s="1" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="812" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B812" s="1" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="813" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B813" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="814" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B814" s="1" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="815" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B815" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="817" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B817" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="818" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B818" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="819" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B819" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="820" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B820" s="1" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="D820" s="2" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="822" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B822" s="1" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="823" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B823" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="824" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B824" s="1" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="825" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B825" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="826" spans="2:4" x14ac:dyDescent="0.25">
@@ -7419,48 +8308,48 @@
     </row>
     <row r="827" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B827" s="5" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="828" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B828" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="829" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B829" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="830" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B830" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="831" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B831" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
     </row>
     <row r="833" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B833" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="834" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B834" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="835" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B835" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D835" s="2" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="836" spans="2:4" x14ac:dyDescent="0.25">
@@ -7468,168 +8357,168 @@
     </row>
     <row r="837" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B837" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="838" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B838" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="839" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B839" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="840" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B840" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="842" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B842" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="843" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B843" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="844" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B844" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="845" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B845" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="847" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B847" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="848" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B848" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="849" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="850" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B850" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="D850" s="2" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="852" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B852" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
     </row>
     <row r="853" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B853" s="1" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
     </row>
     <row r="854" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B854" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="855" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B855" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="856" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B856" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="D856" s="2" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="858" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B858" s="1" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="859" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B859" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="860" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B860" s="1" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="861" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B861" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D861" s="2" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
     </row>
     <row r="863" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B863" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="864" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B864" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="865" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B865" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="866" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B866" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="D866" s="2" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="868" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B868" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="869" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B869" s="1" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="870" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B870" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="871" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B871" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="872" spans="2:4" x14ac:dyDescent="0.25">
@@ -7639,125 +8528,125 @@
     </row>
     <row r="873" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B873" s="5" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="874" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B874" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="875" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B875" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="876" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B876" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="878" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B878" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="879" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B879" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="880" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B880" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="D880" s="2" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="882" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B882" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="883" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B883" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="884" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B884" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="885" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B885" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="887" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B887" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="888" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B888" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="889" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B889" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="891" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B891" s="1" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="892" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B892" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="893" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B893" s="1" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="895" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B895" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="896" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B896" s="1" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="897" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B897" s="1" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="898" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B898" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="899" spans="2:4" x14ac:dyDescent="0.25">
@@ -7767,259 +8656,259 @@
     </row>
     <row r="900" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B900" s="5" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="901" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B901" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="902" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B902" s="1" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="903" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B903" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="905" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B905" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="906" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B906" s="1" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="907" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B907" s="1" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="908" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B908" s="1" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="910" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B910" s="1" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="911" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B911" s="1" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="912" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B912" s="1" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="913" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B913" s="1" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="915" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B915" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="916" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B916" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="917" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B917" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="918" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B918" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="920" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B920" s="1" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="921" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B921" s="1" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="922" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B922" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="923" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B923" s="1" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="924" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B924" s="1" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="925" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B925" s="1" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="926" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B926" s="1" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="927" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B927" s="1" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="928" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B928" s="1" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="929" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B929" s="1" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="930" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B930" s="1" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="931" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B931" s="1" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="932" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B932" s="1" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="933" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B933" s="1" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="934" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B934" s="1" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="935" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B935" s="1" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="937" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B937" s="1" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="938" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B938" s="1" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="939" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B939" s="1" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
     </row>
     <row r="940" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B940" s="1" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="D940" s="2" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="942" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B942" s="1" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="943" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B943" s="1" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="944" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B944" s="1" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="D944" s="2" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="946" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B946" s="1" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="947" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B947" s="1" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="948" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B948" s="1" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="949" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B949" s="1" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="950" spans="2:4" x14ac:dyDescent="0.25">
@@ -8027,25 +8916,25 @@
     </row>
     <row r="951" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B951" s="1" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="952" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B952" s="1" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="953" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B953" s="1" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="954" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B954" s="1" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D954" s="2" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="955" spans="2:4" x14ac:dyDescent="0.25">
@@ -8055,32 +8944,32 @@
     </row>
     <row r="956" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B956" s="5" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="957" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B957" s="1" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="C957" s="6"/>
       <c r="D957" s="6"/>
     </row>
     <row r="958" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B958" s="1" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="959" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B959" s="1" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="960" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B960" s="1" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="D960" s="2" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="961" spans="2:4" x14ac:dyDescent="0.25">
@@ -8088,38 +8977,38 @@
     </row>
     <row r="962" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B962" s="1" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="963" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B963" s="1" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="964" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B964" s="1" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="D964" s="2" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="966" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B966" s="1" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
     </row>
     <row r="967" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B967" s="1" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="968" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B968" s="1" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="D968" s="2" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="969" spans="2:4" x14ac:dyDescent="0.25">
@@ -8129,76 +9018,76 @@
     </row>
     <row r="970" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B970" s="5" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="971" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B971" s="1" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="972" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B972" s="1" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
     </row>
     <row r="973" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B973" s="1" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
     </row>
     <row r="974" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B974" s="1" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="D974" s="2" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
     </row>
     <row r="976" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B976" s="1" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="977" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B977" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="978" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B978" s="1" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="979" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B979" s="1" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="D979" s="2" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
     </row>
     <row r="981" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B981" s="1" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
     </row>
     <row r="982" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B982" s="1" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="983" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B983" s="1" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="984" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B984" s="1" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="D984" s="2" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="985" spans="2:4" x14ac:dyDescent="0.25">
@@ -8208,71 +9097,71 @@
     </row>
     <row r="986" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B986" s="5" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="987" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B987" s="1" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="988" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B988" s="1" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="989" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B989" s="1" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="990" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B990" s="1" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="D990" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="992" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B992" s="1" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B993" s="1" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B994" s="1" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D994" s="2" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B996" s="1" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B997" s="1" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B998" s="1" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B999" s="1" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="D999" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
@@ -8283,7 +9172,1484 @@
     </row>
     <row r="1002" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1002" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1002" s="5" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1003" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1004" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1005" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1006" s="1" t="s">
         <v>994</v>
+      </c>
+      <c r="D1006" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1007" s="4"/>
+      <c r="C1007" s="4"/>
+      <c r="D1007" s="4"/>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1008" s="5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1009" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1010" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1011" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1013" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1014" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1015" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1016" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1016" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1018" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1019" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1020" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1021" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1022" s="4"/>
+      <c r="C1022" s="4"/>
+      <c r="D1022" s="4"/>
+    </row>
+    <row r="1023" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1023" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1024" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1025" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1026" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1027" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D1027" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1029" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1030" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1031" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1031" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1033" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1034" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1035" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1035" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1036" s="4"/>
+      <c r="C1036" s="4"/>
+      <c r="D1036" s="4"/>
+    </row>
+    <row r="1037" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1037" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1038" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1039" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1040" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1041" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D1041" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1042" s="1"/>
+    </row>
+    <row r="1043" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1043" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1044" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1045" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1046" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D1046" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1047" s="1"/>
+    </row>
+    <row r="1048" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1048" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1049" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1050" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1051" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D1051" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1052" s="1"/>
+    </row>
+    <row r="1053" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1053" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1054" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1055" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1056" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1056" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1057" s="4"/>
+      <c r="C1057" s="4"/>
+      <c r="D1057" s="4"/>
+    </row>
+    <row r="1058" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1058" s="5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1059" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1059" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1060" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1061" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1062" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D1062" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1063" s="1"/>
+    </row>
+    <row r="1064" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1064" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1065" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1066" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1067" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D1067" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1069" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1070" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1070" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1071" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1071" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1072" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D1072" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1074" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1074" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1075" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1075" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1076" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1076" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1077" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1077" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1079" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1079" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1080" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1080" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1081" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1081" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1082" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1082" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D1082" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1084" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1084" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1085" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1085" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1086" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1086" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1088" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1089" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1090" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1091" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1091" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1093" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1094" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1095" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1096" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D1096" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1098" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1098" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1099" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1099" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1100" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1101" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1101" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1102" s="4"/>
+      <c r="C1102" s="4"/>
+      <c r="D1102" s="4"/>
+    </row>
+    <row r="1103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1103" s="5" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1104" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1105" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1106" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D1106" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1108" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1109" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1110" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1110" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1112" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1113" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1114" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D1114" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1116" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1117" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1118" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D1118" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1120" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1121" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1122" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1122" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1124" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1125" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1126" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1126" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1129" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1130" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1131" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1131" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1132" s="4"/>
+      <c r="C1132" s="4"/>
+      <c r="D1132" s="4"/>
+    </row>
+    <row r="1133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1133" s="5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1134" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1135" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1136" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D1136" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1138" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1139" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1140" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1140" s="7" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1142" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1143" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1144" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1145" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1145" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1146" s="1"/>
+    </row>
+    <row r="1147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1147" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1148" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1149" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1150" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D1150" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1151" s="1"/>
+    </row>
+    <row r="1152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1152" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1153" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1154" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1155" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1155" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1156" s="4"/>
+      <c r="C1156" s="4"/>
+      <c r="D1156" s="4"/>
+    </row>
+    <row r="1157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1157" s="5" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1158" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1159" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1160" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1160" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1162" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1163" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1164" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1164" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1166" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1167" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1167" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1168" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1169" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1169" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1170" s="1"/>
+    </row>
+    <row r="1171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1171" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1172" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1173" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1174" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1175" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1175" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1177" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1178" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1179" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1179" s="2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1181" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1182" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1183" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D1183" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1185" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1186" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1187" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1187" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1189" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1190" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1191" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1192" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D1192" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1193" s="4"/>
+      <c r="C1193" s="4"/>
+      <c r="D1193" s="4"/>
+    </row>
+    <row r="1194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1194" s="5" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1195" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1196" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1197" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1198" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1198" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1200" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1201" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1202" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1202" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1204" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1205" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1206" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1206" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1208" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1209" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1210" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1211" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1211" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1213" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1214" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1215" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1216" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1216" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1217" s="4"/>
+      <c r="C1217" s="4"/>
+      <c r="D1217" s="4"/>
+    </row>
+    <row r="1218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1218" s="5" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1219" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1220" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1220" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1221" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1222" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D1222" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1223" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1224" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1224" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1225" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1226" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1226" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1228" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1229" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1230" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1231" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D1231" s="2" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1233" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1234" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1235" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1235" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1237" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1238" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1239" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1239" s="2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1241" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1242" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1243" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D1243" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1245" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1246" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1247" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1248" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D1248" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1250" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1251" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1252" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1253" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1253" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1254" s="4"/>
+      <c r="C1254" s="4"/>
+      <c r="D1254" s="4"/>
+    </row>
+    <row r="1255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1255" s="5" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1256" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1257" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1258" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1259" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D1259" s="2" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1261" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1262" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1263" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1264" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D1264" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1266" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1267" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1267" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1268" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1269" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1269" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1270" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1271" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D1271" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1272" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1273" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D1273" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1274" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1275" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1275" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1277" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1278" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D1278" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1279" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1280" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D1280" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1282" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1283" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1284" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D1284" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1285" s="4"/>
+      <c r="C1285" s="4"/>
+      <c r="D1285" s="4"/>
+    </row>
+    <row r="1286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1286" s="5" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1287" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1288" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1289" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D1289" s="2" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1291" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1292" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1293" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1293" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1295" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1296" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1297" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1298" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D1298" s="2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1299" s="4"/>
+      <c r="B1299" s="4"/>
+      <c r="C1299" s="4"/>
+      <c r="D1299" s="4"/>
+    </row>
+    <row r="1301" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1301" s="3" t="s">
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -8310,40 +10676,40 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>989</v>
+        <v>1284</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>778</v>
+        <v>986</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>990</v>
+        <v>1285</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>779</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>991</v>
+        <v>1286</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>780</v>
+        <v>988</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>992</v>
+        <v>1287</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>781</v>
+        <v>989</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>782</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -8355,68 +10721,68 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>914</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>915</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>916</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
-        <v>917</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>918</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>919</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>783</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>784</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>785</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>786</v>
+        <v>1156</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>985</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>787</v>
+        <v>1157</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>986</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>987</v>
+        <v>1282</v>
       </c>
     </row>
   </sheetData>

--- a/afcg/dbfields.xlsx
+++ b/afcg/dbfields.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1795">
   <si>
     <t>location_1_1_1_A_a</t>
   </si>
@@ -2985,21 +2985,6 @@
     <t>kitchen_8_1_1_text</t>
   </si>
   <si>
-    <t>kitchen_2_4_1_text</t>
-  </si>
-  <si>
-    <t>kitchen_2_4_1_B_a</t>
-  </si>
-  <si>
-    <t>kitchen_2_4_1_B_cm</t>
-  </si>
-  <si>
-    <t>kitchen_2_4_1_B_b</t>
-  </si>
-  <si>
-    <t>kitchen_2_4_1_B_c</t>
-  </si>
-  <si>
     <t>kitchen_8_1_1_A_a</t>
   </si>
   <si>
@@ -3489,18 +3474,6 @@
     <t>kitchen_8_8_1_C_b_cm</t>
   </si>
   <si>
-    <t>kitchen_8_8_1_C_c</t>
-  </si>
-  <si>
-    <t>kitchen_8_8_1_C_c_cm</t>
-  </si>
-  <si>
-    <t>kitchen_8_8_1_C_d</t>
-  </si>
-  <si>
-    <t>kitchen_8_8_1_C_d_cm</t>
-  </si>
-  <si>
     <t>kitchen_8_8_1_C_b</t>
   </si>
   <si>
@@ -3834,12 +3807,6 @@
     <t>kitchen_8_11_1_D_b_cm</t>
   </si>
   <si>
-    <t>kitchen_8_11_1_D_c</t>
-  </si>
-  <si>
-    <t>kitchen_8_11_1_D_c_cm</t>
-  </si>
-  <si>
     <t>kitchen_8_11_1_E_a</t>
   </si>
   <si>
@@ -3892,13 +3859,1564 @@
   </si>
   <si>
     <t>kitchen_8_12_1_C</t>
+  </si>
+  <si>
+    <t>QN 9.</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_1_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_1_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_1_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_1_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_1_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_1_1_A_d</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_1_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_2_1_B</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_3_1_B</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_a_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_b_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_c_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_d</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_d_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_e</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_e_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_f</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_f_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_g</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_g_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_h</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_h_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_i</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_i_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_j</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_j_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_k</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_k_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_l</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_l_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_m</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_m_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_n</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_B_n_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_C</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_D</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_E_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_E_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_E_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_E_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_E</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_F_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_F_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_F_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_F_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_F</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_G_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_G_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_G_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_G_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_4_1_G</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_B_a_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_B_b_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_B_c_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_B_d</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_B_d_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_C_d</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_C_e</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_C</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_D_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_5_1_D</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_6_1_B</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_B</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_C</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_D_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_D</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_E_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_E_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_E_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_E_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_7_1_E</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_B</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_C</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_D_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_D</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_E_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_E_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_E_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_E_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_8_1_E</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_a_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_b_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_c_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_d</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_d_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_e</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_e_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_f</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_B_f_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_C</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_D_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_9_1_D</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_10_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_10_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_10_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_10_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_10_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_10_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_a_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_b_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_c_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_d</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_d_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_e</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_A_e_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_B_a_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_B_b_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_B_c_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_11_1_C</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_B</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_C</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_D</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_E_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_E_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_E_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_E_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_E</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_F_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_F_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_F_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_F_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_F</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_G_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_G_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_G_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_G_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_12_1_G</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_B</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_13_1_C</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_text</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_A</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_B_a_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_B_b_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_B_c_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_14_1_C</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_a_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_b_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_c_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_d</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_d_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_e</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_e_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_f</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_f_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_g</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_g_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_h</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_h_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_i</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_i_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_j</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_j_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_k</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_k_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_l</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_l_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_m</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_m_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_n</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_n_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_o</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_o_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_p</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_p_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_q</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_A_q_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_B</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_rooms_9_15_1_C</t>
+  </si>
+  <si>
+    <t>QN 10.</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_1_1_text</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_1_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_1_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_1_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_1_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_1_1_A</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_1_1_A_d</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_2_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_2_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_2_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_2_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_2_1_A</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_text</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_a_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_b_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_c_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_d</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_d_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_e</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_e_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_f</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_f_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_g</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_g_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_h</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_h_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_i</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_i_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_j</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_j_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_k</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_k_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_l</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_l_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_m</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_m_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_n</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_n_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_o</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_o_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_p</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_p_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_q</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_q_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_r</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_r_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_s</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_s_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_t</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_t_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_u</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_u_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_v</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_v_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_w</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_A_w_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_B</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_2_4_1_text</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_2_4_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_2_4_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_2_4_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_2_4_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_9_14_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_9_14_1_B_a_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_9_14_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_9_14_1_B_b_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_9_14_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_9_14_1_B_c_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_8_8_1_C_b_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_8_8_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_8_8_1_C_c_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_8_8_1_C_d</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_8_8_1_C_d_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_C</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_D_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_D</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_E_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_E_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_E_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_E_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_E</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_F_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_F_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_F_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_F_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_3_1_F</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_text</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_A</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_B</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_C</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_D</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_E_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_E_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_E_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_E_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_E</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_F_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_F_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_F_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_F_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_4_1_F</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_text</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_a_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_b_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_c_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_d</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_d_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_e</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_A_e_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_B</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_C</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_D</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_E_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_E_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_E_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_E_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_E</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_F_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_F_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_F_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_5_1_F</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_text</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_A</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_B</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_6_1_C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3929,6 +5447,17 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Book Antiqua"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3956,7 +5485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3969,6 +5498,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4249,10 +5783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1301"/>
+  <dimension ref="A1:D1810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1294" workbookViewId="0">
-      <selection activeCell="A1301" sqref="A1301"/>
+    <sheetView tabSelected="1" topLeftCell="A1792" workbookViewId="0">
+      <selection activeCell="B1810" sqref="B1810:D1810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4277,6 +5811,9 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4468,6 +6005,9 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4790,6 +6330,9 @@
       <c r="B109" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="D109" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
@@ -5000,6 +6543,9 @@
       <c r="B155" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="D155" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
@@ -5026,6 +6572,9 @@
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5248,6 +6797,9 @@
       <c r="B206" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="D206" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
@@ -5376,6 +6928,9 @@
       <c r="B233" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="D233" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
@@ -5534,6 +7089,9 @@
       <c r="B261" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="D261" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
@@ -5585,6 +7143,9 @@
       <c r="B272" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="D272" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
@@ -5647,6 +7208,9 @@
       <c r="B282" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="D282" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
@@ -5742,6 +7306,9 @@
       <c r="B301" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="D301" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
@@ -5788,6 +7355,9 @@
       <c r="B310" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="D310" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
@@ -5852,6 +7422,9 @@
       <c r="B323" s="1" t="s">
         <v>314</v>
       </c>
+      <c r="D323" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
@@ -5932,6 +7505,9 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6002,6 +7578,9 @@
       <c r="B352" s="1" t="s">
         <v>342</v>
       </c>
+      <c r="D352" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
@@ -6163,6 +7742,9 @@
       <c r="B386" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="D386" s="1" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
@@ -6196,6 +7778,9 @@
       <c r="B392" s="1" t="s">
         <v>382</v>
       </c>
+      <c r="D392" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
@@ -6299,6 +7884,9 @@
       <c r="B411" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="D411" s="2" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
@@ -6449,6 +8037,9 @@
       <c r="B441" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="D441" s="1" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
@@ -6505,6 +8096,9 @@
       <c r="B452" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="D452" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
@@ -6666,6 +8260,9 @@
       <c r="B486" s="1" t="s">
         <v>474</v>
       </c>
+      <c r="D486" s="1" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
@@ -6733,6 +8330,9 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D500" s="1" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6777,6 +8377,9 @@
       <c r="B508" s="1" t="s">
         <v>496</v>
       </c>
+      <c r="D508" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
@@ -7037,6 +8640,9 @@
       <c r="B564" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="D564" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
@@ -7150,6 +8756,9 @@
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D588" s="1" t="s">
         <v>576</v>
       </c>
     </row>
@@ -8138,6 +9747,9 @@
       <c r="B792" s="5" t="s">
         <v>777</v>
       </c>
+      <c r="D792" s="5" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B793" s="1" t="s">
@@ -8310,6 +9922,9 @@
       <c r="B827" s="5" t="s">
         <v>812</v>
       </c>
+      <c r="D827" s="5" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="828" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B828" s="1" t="s">
@@ -8658,6 +10273,9 @@
       <c r="B900" s="5" t="s">
         <v>885</v>
       </c>
+      <c r="D900" s="5" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="901" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B901" s="1" t="s">
@@ -8946,6 +10564,9 @@
       <c r="B956" s="5" t="s">
         <v>939</v>
       </c>
+      <c r="D956" s="5" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="957" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B957" s="1" t="s">
@@ -9020,6 +10641,9 @@
       <c r="B970" s="5" t="s">
         <v>953</v>
       </c>
+      <c r="D970" s="5" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="971" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B971" s="1" t="s">
@@ -9097,6 +10721,9 @@
     </row>
     <row r="986" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B986" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="D986" s="5" t="s">
         <v>969</v>
       </c>
     </row>
@@ -9177,28 +10804,31 @@
       <c r="B1002" s="5" t="s">
         <v>985</v>
       </c>
+      <c r="D1002" s="5" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1003" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1004" s="1" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1005" s="1" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1006" s="1" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D1006" s="2" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
@@ -9208,71 +10838,74 @@
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1008" s="5" t="s">
-        <v>996</v>
+        <v>991</v>
+      </c>
+      <c r="D1008" s="5" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="1009" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1009" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1010" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1010" s="1" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1011" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1011" s="1" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D1011" s="2" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1013" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1013" s="1" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1014" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1014" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1015" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1015" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1016" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1016" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D1016" s="2" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1018" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1018" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1019" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1019" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1020" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1020" s="1" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1021" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1021" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D1021" s="2" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1022" spans="2:4" x14ac:dyDescent="0.25">
@@ -9282,66 +10915,69 @@
     </row>
     <row r="1023" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1023" s="5" t="s">
-        <v>1011</v>
+        <v>1006</v>
+      </c>
+      <c r="D1023" s="5" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="1024" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1024" s="1" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1025" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1025" s="1" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1026" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1026" s="1" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1027" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1027" s="1" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D1027" s="2" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1029" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1029" s="1" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1030" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1030" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1031" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1031" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D1031" s="2" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1033" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1033" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1034" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1034" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1035" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1035" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D1035" s="2" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1036" spans="2:4" x14ac:dyDescent="0.25">
@@ -9351,30 +10987,33 @@
     </row>
     <row r="1037" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1037" s="5" t="s">
-        <v>1025</v>
+        <v>1020</v>
+      </c>
+      <c r="D1037" s="5" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="1038" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1038" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1039" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1039" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1040" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1040" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1041" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1041" s="1" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D1041" s="2" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1042" spans="2:4" x14ac:dyDescent="0.25">
@@ -9382,25 +11021,25 @@
     </row>
     <row r="1043" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1043" s="1" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1044" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1044" s="1" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1045" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1045" s="1" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1046" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1046" s="1" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D1046" s="2" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1047" spans="2:4" x14ac:dyDescent="0.25">
@@ -9408,25 +11047,25 @@
     </row>
     <row r="1048" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1048" s="1" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1049" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1049" s="1" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1050" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1050" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1051" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1051" s="1" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="D1051" s="2" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1052" spans="2:4" x14ac:dyDescent="0.25">
@@ -9434,25 +11073,25 @@
     </row>
     <row r="1053" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1053" s="1" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1054" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1054" s="1" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1055" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1055" s="1" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1056" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1056" s="1" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D1056" s="2" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1057" spans="2:4" x14ac:dyDescent="0.25">
@@ -9462,30 +11101,33 @@
     </row>
     <row r="1058" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1058" s="5" t="s">
-        <v>1050</v>
+        <v>1045</v>
+      </c>
+      <c r="D1058" s="5" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="1059" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1059" s="1" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1060" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1060" s="1" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1061" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1061" s="1" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1062" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1062" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="D1062" s="2" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1063" spans="2:4" x14ac:dyDescent="0.25">
@@ -9493,181 +11135,181 @@
     </row>
     <row r="1064" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1064" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1065" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1065" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1066" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1066" s="1" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1067" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1067" s="1" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="D1067" s="2" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1069" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1069" s="1" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1070" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1070" s="1" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1071" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1071" s="1" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1072" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1072" s="1" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="D1072" s="2" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1074" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1074" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1075" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1075" s="1" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1076" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1076" s="1" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1077" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1077" s="1" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="D1077" s="2" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1079" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1079" s="1" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1080" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1080" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1081" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1081" s="1" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1082" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1082" s="1" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="D1082" s="2" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1084" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1084" s="1" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1085" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1085" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1086" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1086" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="D1086" s="2" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1088" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1088" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1089" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1089" s="1" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1090" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1090" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1091" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1091" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D1091" s="2" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1093" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1093" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1094" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1094" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1095" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1095" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1096" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1096" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D1096" s="2" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1098" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1098" s="1" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1099" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1099" s="1" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1100" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1101" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="D1101" s="2" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1102" spans="2:4" x14ac:dyDescent="0.25">
@@ -9677,133 +11319,136 @@
     </row>
     <row r="1103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1103" s="5" t="s">
-        <v>1091</v>
+        <v>1086</v>
+      </c>
+      <c r="D1103" s="5" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="1104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1104" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1105" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1106" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D1106" s="2" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1108" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1109" s="1" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1110" s="1" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="D1110" s="2" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1112" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1113" s="1" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1114" s="1" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="D1114" s="2" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1116" s="1" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1117" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1118" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="D1118" s="2" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1120" s="1" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1121" s="1" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1122" s="1" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="D1122" s="2" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1124" s="1" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1125" s="1" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1126" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D1126" s="2" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1129" s="1" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1130" s="1" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1131" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="D1131" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1132" spans="2:4" x14ac:dyDescent="0.25">
@@ -9813,66 +11458,69 @@
     </row>
     <row r="1133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1133" s="5" t="s">
-        <v>1120</v>
+        <v>1115</v>
+      </c>
+      <c r="D1133" s="5" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="1134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1134" s="1" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1135" s="1" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1136" s="1" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="D1136" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1138" s="1" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1139" s="1" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1140" s="1" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="D1140" s="7" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1142" s="1" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1143" s="1" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1144" s="1" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1145" s="1" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="D1145" s="2" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1146" spans="2:4" x14ac:dyDescent="0.25">
@@ -9880,25 +11528,25 @@
     </row>
     <row r="1147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1147" s="1" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1148" s="1" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1149" s="1" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1150" s="1" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="D1150" s="2" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1151" spans="2:4" x14ac:dyDescent="0.25">
@@ -9906,25 +11554,25 @@
     </row>
     <row r="1152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1152" s="1" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1153" s="1" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1154" s="1" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1155" s="1" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D1155" s="2" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1156" spans="2:4" x14ac:dyDescent="0.25">
@@ -9934,69 +11582,72 @@
     </row>
     <row r="1157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1157" s="5" t="s">
-        <v>1144</v>
+        <v>1139</v>
+      </c>
+      <c r="D1157" s="5" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="1158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1158" s="1" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1159" s="1" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1160" s="1" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="D1160" s="2" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1162" s="1" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1163" s="1" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1164" s="1" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="D1164" s="2" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1166" s="2" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1167" s="1" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="D1167" s="2" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1168" s="1" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1169" s="1" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1170" spans="2:4" x14ac:dyDescent="0.25">
@@ -10004,107 +11655,107 @@
     </row>
     <row r="1171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1171" s="1" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1172" s="1" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1173" s="1" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1174" s="1" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1175" s="1" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="D1175" s="2" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1177" s="1" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1178" s="1" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1179" s="1" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="D1179" s="2" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1181" s="1" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1182" s="1" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1183" s="1" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="D1183" s="2" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1185" s="1" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1186" s="1" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1187" s="1" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="D1187" s="2" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1189" s="1" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1190" s="1" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1191" s="1" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1192" s="1" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="D1192" s="2" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1193" spans="2:4" x14ac:dyDescent="0.25">
@@ -10114,112 +11765,115 @@
     </row>
     <row r="1194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1194" s="5" t="s">
-        <v>1184</v>
+        <v>1175</v>
+      </c>
+      <c r="D1194" s="5" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="1195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1195" s="1" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1196" s="1" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1197" s="1" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1198" s="1" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="D1198" s="2" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1200" s="1" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1201" s="1" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1202" s="1" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="D1202" s="2" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1204" s="1" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1205" s="1" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1206" s="1" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="D1206" s="2" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1208" s="1" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1209" s="1" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1210" s="1" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1211" s="1" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="D1211" s="2" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1213" s="1" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1214" s="1" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1215" s="1" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1216" s="1" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="D1216" s="2" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1217" spans="2:4" x14ac:dyDescent="0.25">
@@ -10229,182 +11883,185 @@
     </row>
     <row r="1218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1218" s="5" t="s">
-        <v>1208</v>
+        <v>1199</v>
+      </c>
+      <c r="D1218" s="5" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="1219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1219" s="1" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1220" s="1" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="D1220" s="1" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1221" s="1" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1222" s="1" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="D1222" s="1" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1223" s="1" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1224" s="1" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="D1224" s="1" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1225" s="1" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1226" s="1" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="D1226" s="1" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1228" s="1" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1229" s="1" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1230" s="1" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1231" s="1" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="D1231" s="2" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1233" s="1" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1234" s="1" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1235" s="1" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="D1235" s="2" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1237" s="1" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1238" s="1" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1239" s="1" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="D1239" s="2" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1241" s="1" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1242" s="1" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1243" s="1" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="D1243" s="2" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1245" s="1" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1246" s="1" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1247" s="1" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1248" s="1" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="D1248" s="2" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1250" s="1" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1251" s="1" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1252" s="1" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1253" s="1" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="D1253" s="2" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1254" spans="2:4" x14ac:dyDescent="0.25">
@@ -10414,162 +12071,165 @@
     </row>
     <row r="1255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1255" s="5" t="s">
-        <v>1243</v>
+        <v>1234</v>
+      </c>
+      <c r="D1255" s="5" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="1256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1256" s="1" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1257" s="1" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1258" s="1" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1259" s="1" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="D1259" s="2" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1261" s="1" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1262" s="1" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1263" s="1" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1264" s="1" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="D1264" s="2" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1266" s="1" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1267" s="1" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1268" s="1" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1269" s="1" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="D1269" s="1" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1270" s="1" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1271" s="1" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="D1271" s="1" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1272" s="1" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1273" s="1" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="D1273" s="1" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1274" s="1" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1275" s="1" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1277" s="1" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1278" s="1" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="D1278" s="1" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1279" s="1" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1280" s="1" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1282" s="1" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
       <c r="D1284" s="2" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1285" spans="2:4" x14ac:dyDescent="0.25">
@@ -10579,66 +12239,69 @@
     </row>
     <row r="1286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1286" s="5" t="s">
-        <v>1275</v>
+        <v>1264</v>
+      </c>
+      <c r="D1286" s="5" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="1287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1287" s="1" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1288" s="1" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="D1289" s="2" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1291" s="1" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1292" s="1" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1293" s="1" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="D1293" s="2" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1295" s="1" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1296" s="1" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1297" s="1" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1298" s="1" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="D1298" s="2" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
@@ -10649,8 +12312,2805 @@
     </row>
     <row r="1301" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1301" s="3" t="s">
-        <v>984</v>
-      </c>
+        <v>1278</v>
+      </c>
+      <c r="B1301" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D1301" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1302" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1303" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1304" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1304" s="2" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1305" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1306" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D1306" s="2" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1307" s="4"/>
+      <c r="C1307" s="4"/>
+      <c r="D1307" s="4"/>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1308" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1308" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1309" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1310" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1311" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1312" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1312" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1314" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1314" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1315" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1315" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1316" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1316" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1317" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1317" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D1317" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1318" s="4"/>
+      <c r="C1318" s="4"/>
+      <c r="D1318" s="4"/>
+    </row>
+    <row r="1319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1319" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1320" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1321" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1322" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1323" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1323" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1325" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1326" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1327" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1328" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1328" s="2" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1329" s="4"/>
+      <c r="C1329" s="4"/>
+      <c r="D1329" s="4"/>
+    </row>
+    <row r="1330" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1330" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1330" s="5" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1331" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1332" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1333" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D1333" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1335" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1336" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D1336" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1337" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1337" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1338" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1338" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D1338" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1339" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1339" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1340" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1340" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D1340" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1341" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1341" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1342" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1342" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D1342" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1343" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1343" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1344" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1344" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D1344" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1345" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1345" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1346" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1346" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D1346" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1347" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1347" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1348" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1348" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D1348" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1349" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1349" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1350" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1350" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D1350" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1351" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1351" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1352" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1352" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D1352" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1353" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1354" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1354" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1355" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1356" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D1356" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1357" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1358" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1358" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D1358" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1359" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1359" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1360" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1360" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D1360" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1361" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1361" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1362" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D1362" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1363" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1363" s="1"/>
+    </row>
+    <row r="1364" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1364" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1365" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1365" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1366" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1366" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1367" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1367" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1367" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1369" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1369" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1370" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1370" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1371" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1371" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D1371" s="2" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1373" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1373" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1374" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1374" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1375" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1375" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1376" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1376" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1376" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1378" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1378" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1379" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1379" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1380" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1380" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1381" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1381" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1381" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1383" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1383" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1384" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1384" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1385" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1385" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1386" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1386" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D1386" s="2" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1387" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1387" s="4"/>
+      <c r="C1387" s="4"/>
+      <c r="D1387" s="4"/>
+    </row>
+    <row r="1388" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1388" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D1388" s="5" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1389" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1389" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1390" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1390" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1391" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1391" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1392" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1392" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D1392" s="2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1394" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1394" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1395" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1395" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D1395" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1396" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1396" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1397" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1397" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D1397" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1398" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1398" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1399" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1399" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1399" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1400" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1400" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1401" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1401" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1401" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1403" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1403" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1404" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1404" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1405" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1405" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1406" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1406" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1407" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1407" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1408" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1408" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D1408" s="2" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1410" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1410" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1411" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1411" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1412" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1412" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1413" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1413" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D1413" s="2" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1414" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1414" s="4"/>
+      <c r="C1414" s="4"/>
+      <c r="D1414" s="4"/>
+    </row>
+    <row r="1415" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1415" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D1415" s="5" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1416" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1416" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1417" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1417" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1418" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1418" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D1418" s="2" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1420" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1420" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1421" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1421" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1422" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1422" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1423" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1423" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D1423" s="2" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1424" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1424" s="10"/>
+      <c r="C1424" s="4"/>
+      <c r="D1424" s="4"/>
+    </row>
+    <row r="1425" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1425" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D1425" s="5" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1426" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1426" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1427" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1427" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1428" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1428" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1429" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1429" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D1429" s="2" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1431" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1431" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1432" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1432" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1433" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1433" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D1433" s="2" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1435" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1435" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1436" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1436" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1437" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1437" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1438" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1438" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1438" s="2" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1440" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1440" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1441" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1441" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1442" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1442" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1443" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1443" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D1443" s="2" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1445" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1445" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1446" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1446" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1447" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1447" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1448" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1448" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D1448" s="2" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1449" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1449" s="10"/>
+      <c r="C1449" s="10"/>
+      <c r="D1449" s="10"/>
+    </row>
+    <row r="1450" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1450" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D1450" s="5" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1451" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1451" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1452" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1452" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1453" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1453" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1454" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1454" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D1454" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1456" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1456" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1457" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1457" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1458" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1458" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1459" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1459" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D1459" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1461" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1461" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1462" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1462" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1463" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1463" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1464" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1464" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1464" s="2" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1466" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1466" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1467" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1467" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1468" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1469" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1469" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1469" s="2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1471" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1471" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1472" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1473" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1474" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1474" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1475" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1475" s="10"/>
+      <c r="C1475" s="10"/>
+      <c r="D1475" s="10"/>
+    </row>
+    <row r="1476" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1476" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1476" s="5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1477" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1478" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1478" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1479" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1479" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1480" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1480" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1480" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1482" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1482" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1483" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1483" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D1483" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1484" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1485" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1485" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1485" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1486" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1486" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1487" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1487" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D1487" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1488" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1489" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1489" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D1489" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1490" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1490" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1491" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1491" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D1491" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1492" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1492" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1493" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1493" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D1493" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1495" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1495" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1496" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1496" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1497" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1497" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D1497" s="2" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1499" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1499" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1500" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1500" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1501" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1501" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1502" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1502" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D1502" s="2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1503" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1503" s="10"/>
+      <c r="C1503" s="10"/>
+      <c r="D1503" s="10"/>
+    </row>
+    <row r="1504" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1504" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D1504" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1505" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1505" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1506" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1506" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1507" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1507" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1508" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1508" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D1508" s="2" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1509" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1509" s="10"/>
+      <c r="C1509" s="10"/>
+      <c r="D1509" s="10"/>
+    </row>
+    <row r="1510" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1510" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D1510" s="5" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1511" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1511" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1512" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1512" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D1512" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1513" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1513" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1514" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1514" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D1514" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1515" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1515" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1516" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1516" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D1516" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1517" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1517" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1518" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1518" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D1518" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1519" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1520" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D1520" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1522" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1523" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1523" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D1523" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1524" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1525" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D1525" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1526" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1526" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1527" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D1527" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1529" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1530" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1530" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1531" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1531" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1532" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D1532" s="2" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1533" s="10"/>
+      <c r="C1533" s="10"/>
+      <c r="D1533" s="10"/>
+    </row>
+    <row r="1534" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1534" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D1534" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1535" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1536" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1537" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D1537" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1539" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1540" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1541" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D1541" s="2" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1543" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1544" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1545" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1546" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D1546" s="2" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1547" s="1"/>
+    </row>
+    <row r="1548" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1548" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1549" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1550" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D1550" s="2" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1552" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1553" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1554" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1555" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D1555" s="2" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1557" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1558" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1559" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1560" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D1560" s="2" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1562" s="1" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1563" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1564" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1565" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1565" s="2" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1566" s="10"/>
+      <c r="C1566" s="10"/>
+      <c r="D1566" s="10"/>
+    </row>
+    <row r="1567" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1567" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D1567" s="5" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1568" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1569" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1570" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D1570" s="2" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1571"/>
+    </row>
+    <row r="1572" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1572" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1573" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1574" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1575" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1575" s="2" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1577" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1578" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1579" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1580" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D1580" s="2" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1581" s="10"/>
+      <c r="C1581" s="10"/>
+      <c r="D1581" s="10"/>
+    </row>
+    <row r="1582" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1582" s="5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D1582" s="5" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1583" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1584" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1585" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1586" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D1586" s="2" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1588" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1589" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D1589" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1590" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1591" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D1591" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1592" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1593" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D1593" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1595" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1596" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1597" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1598" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D1598" s="2" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1599" s="11"/>
+      <c r="B1599" s="11"/>
+      <c r="C1599" s="11"/>
+      <c r="D1599" s="11"/>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1600" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1601" s="3"/>
+      <c r="B1601" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1602" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D1602" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1603" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1604" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D1604" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1605" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1606" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D1606" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1607" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1608" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D1608" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1609" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1610" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D1610" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1611" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1612" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1612" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1613" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1614" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D1614" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1615" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1616" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D1616" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1617" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1617" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1618" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1618" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D1618" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1619" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1619" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1620" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1620" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1620" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1621" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1621" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1622" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1622" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1622" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1623" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1623" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1624" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1624" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D1624" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1625" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1625" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1626" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1626" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1626" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1627" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1627" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1628" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1628" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1628" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1629" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1629" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1630" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1630" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D1630" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1631" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1631" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1632" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1632" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D1632" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1633" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1634" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D1634" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1636" s="1" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1637" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1638" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1639" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D1639" s="2" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1641" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1642" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1643" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1644" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D1644" s="2" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1645" s="10"/>
+      <c r="B1645" s="10"/>
+      <c r="C1645" s="10"/>
+      <c r="D1645" s="10"/>
+    </row>
+    <row r="1647" spans="1:4" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1647" s="12" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1647" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D1647" s="5" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1648" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1649" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1649" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1650" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1651" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1652" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D1652" s="2" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1653" s="10"/>
+      <c r="C1653" s="10"/>
+      <c r="D1653" s="10"/>
+    </row>
+    <row r="1654" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1654" s="1" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1655" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1656" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1657" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D1657" s="2" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1658" s="10"/>
+      <c r="C1658" s="10"/>
+      <c r="D1658" s="10"/>
+    </row>
+    <row r="1659" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1659" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D1659" s="5" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1660" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1661" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D1661" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1662" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1662" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1663" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D1663" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1664" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1665" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D1665" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1666" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1667" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1667" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1668" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1669" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D1669" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1670" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1671" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D1671" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1672" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1673" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D1673" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1674" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1675" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D1675" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1676" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1677" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D1677" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1678" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1679" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D1679" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1680" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1681" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1681" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D1681" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1682" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1682" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1683" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1683" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D1683" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1684" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1684" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1685" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1685" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D1685" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1686" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1686" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1687" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1687" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1687" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1688" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1688" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1689" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1689" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1689" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1690" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1690" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1691" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1691" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D1691" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1692" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1692" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1693" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1693" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D1693" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1694" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1694" s="1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1695" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1695" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D1695" s="1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1696" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1696" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1697" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1697" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1697" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1698" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1698" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1699" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1699" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1699" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1700" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1700" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1701" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1701" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D1701" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1702" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1702" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1703" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1703" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1703" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1704" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1704" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1705" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1705" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D1705" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1707" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1707" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1708" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1708" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1709" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1709" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1710" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1710" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D1710" s="2" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1712" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1712" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1713" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1713" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1714" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1714" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D1714" s="2" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1716" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1716" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1717" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1717" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1718" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1718" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1719" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1719" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D1719" s="2" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1721" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1721" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1722" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1722" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1723" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1723" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1724" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1724" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D1724" s="2" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1726" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1726" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1727" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1727" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1728" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1728" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1729" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1729" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D1729" s="2" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1730" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1730" s="10"/>
+      <c r="C1730" s="10"/>
+      <c r="D1730" s="10"/>
+    </row>
+    <row r="1731" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1731" s="5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1731" s="5" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1732" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1732" s="1" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1733" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1733" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1734" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1734" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1735" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1735" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D1735" s="2" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1737" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1737" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1738" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1738" s="1" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1739" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1739" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1740" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1740" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D1740" s="2" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1742" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1742" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1743" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1743" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1744" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1744" s="1" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1745" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1745" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D1745" s="2" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1747" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1747" s="1" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1748" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1748" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1749" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1749" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D1749" s="2" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1751" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1751" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1752" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1752" s="1" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1753" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1753" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1754" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1754" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D1754" s="2" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1756" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1756" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1757" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1757" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1758" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1758" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1759" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1759" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D1759" s="2" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1760" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1760" s="10"/>
+      <c r="C1760" s="10"/>
+      <c r="D1760" s="10"/>
+    </row>
+    <row r="1761" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1761" s="5" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D1761" s="5" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1762" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1762" s="1" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1763" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1763" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D1763" s="1" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1764" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1764" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1765" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1765" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D1765" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1766" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1766" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1767" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1767" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D1767" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1768" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1768" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1769" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1769" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D1769" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1770" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1770" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1771" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1771" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D1771" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1772" spans="2:4" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1772" s="11"/>
+      <c r="C1772" s="11"/>
+      <c r="D1772" s="11"/>
+    </row>
+    <row r="1773" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1773" s="1" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1774" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1774" s="1" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1775" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1775" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1776" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1776" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D1776" s="2" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1778" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1778" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1779" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1779" s="1" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1780" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1780" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D1780" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1782" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1782" s="1" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1783" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1783" s="1" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1784" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1784" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1784" s="2" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1786" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1786" s="1" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1787" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1787" s="1" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1788" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1788" s="1" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1789" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1789" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1789" s="2" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1791" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1791" s="1" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1792" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1792" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1793" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1793" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D1793" s="2" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1794" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1794" s="10"/>
+      <c r="C1794" s="10"/>
+      <c r="D1794" s="10"/>
+    </row>
+    <row r="1795" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1795" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D1795" s="5" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1796" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1796" s="1" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1797" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1797" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1798" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1798" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1799" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1799" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D1799" s="2" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1800" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1800" s="1"/>
+    </row>
+    <row r="1801" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1801" s="1" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1802" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1802" s="1" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1803" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1803" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1804" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1804" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D1804" s="2" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1805" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1805" s="1"/>
+    </row>
+    <row r="1806" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1806" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1807" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1807" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1808" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1808" s="1" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1809" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1809" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D1809" s="2" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1810" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1810" s="10"/>
+      <c r="C1810" s="10"/>
+      <c r="D1810" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10676,40 +15136,40 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>1284</v>
+        <v>1790</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>986</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>1285</v>
+        <v>1791</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>987</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>1286</v>
+        <v>1792</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>988</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>1287</v>
+        <v>1793</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>989</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>990</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -10721,68 +15181,68 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>1265</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>1266</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>1267</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
-        <v>1268</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>1269</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>1270</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>1153</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>1154</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>1155</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>1156</v>
+        <v>1695</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1280</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>1157</v>
+        <v>1696</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1281</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>1282</v>
+        <v>1777</v>
       </c>
     </row>
   </sheetData>

--- a/afcg/dbfields.xlsx
+++ b/afcg/dbfields.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="1850">
   <si>
     <t>location_1_1_1_A_a</t>
   </si>
@@ -5410,6 +5410,171 @@
   </si>
   <si>
     <t>guest_bathrooms_10_6_1_C</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_text</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_A</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_B</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_C</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_D_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_D_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_D_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_D_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_7_1_D</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_text</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_a_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_b_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_c_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_d</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_d_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_e</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_e_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_f</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_f_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_g</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_A_g_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_B_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_B</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_C_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_C_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_C_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_C_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_8_1_C</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_text</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_A_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_A_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_A_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_A_c</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_A</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_B_a</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_B_cm</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_B_b</t>
+  </si>
+  <si>
+    <t>guest_bathrooms_10_9_1_B</t>
+  </si>
+  <si>
+    <t>QN 11.</t>
   </si>
 </sst>
 </file>
@@ -5783,10 +5948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1810"/>
+  <dimension ref="A1:D1867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1792" workbookViewId="0">
-      <selection activeCell="B1810" sqref="B1810:D1810"/>
+    <sheetView tabSelected="1" topLeftCell="A1861" workbookViewId="0">
+      <selection activeCell="B1867" sqref="B1867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15112,6 +15277,314 @@
       <c r="C1810" s="10"/>
       <c r="D1810" s="10"/>
     </row>
+    <row r="1811" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1811" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D1811" s="5" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1812" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1812" s="1" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1813" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1813" s="1" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1814" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1814" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D1814" s="2" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1816" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1816" s="1" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1817" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1817" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1818" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1818" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D1818" s="2" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1820" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1820" s="1" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1821" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1821" s="1" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1822" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1822" s="1" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1823" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1823" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D1823" s="2" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1825" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1825" s="1" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1826" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1826" s="1" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1827" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1827" s="1" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1828" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1828" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D1828" s="2" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1829" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1829" s="10"/>
+      <c r="C1829" s="10"/>
+      <c r="D1829" s="10"/>
+    </row>
+    <row r="1830" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1830" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D1830" s="5" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1831" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1831" s="1" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1832" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1832" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D1832" s="1" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1833" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1833" s="1" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1834" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1834" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D1834" s="1" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1835" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1835" s="1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1836" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1836" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D1836" s="1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1837" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1837" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1838" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1838" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1838" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1839" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1839" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1840" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1840" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D1840" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1841" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1841" s="1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1842" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1842" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D1842" s="1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1843" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1843" s="1" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1844" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1844" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1844" s="1" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1846" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1846" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1847" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1847" s="1" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1848" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1848" s="1" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1849" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1849" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1849" s="2" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1850" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1850" s="1"/>
+    </row>
+    <row r="1851" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1851" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1852" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1852" s="1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1853" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1853" s="1" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1854" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1854" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D1854" s="2" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1855" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1855" s="10"/>
+      <c r="C1855" s="10"/>
+      <c r="D1855" s="10"/>
+    </row>
+    <row r="1856" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1856" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D1856" s="5" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1857" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1858" s="1" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1859" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1860" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1860" s="2" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1862" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1863" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1864" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D1864" s="2" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1865" s="10"/>
+      <c r="B1865" s="10"/>
+      <c r="C1865" s="10"/>
+      <c r="D1865" s="10"/>
+    </row>
+    <row r="1867" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1867" s="3" t="s">
+        <v>1849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15123,7 +15596,7 @@
   <dimension ref="B3:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="E20" sqref="E20:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15136,7 +15609,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>1790</v>
+        <v>1840</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1681</v>
@@ -15144,7 +15617,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>1791</v>
+        <v>1841</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1682</v>
@@ -15152,7 +15625,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>1792</v>
+        <v>1842</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1683</v>
@@ -15160,7 +15633,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>1793</v>
+        <v>1843</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>1684</v>
@@ -15229,7 +15702,7 @@
         <v>1695</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1775</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -15237,12 +15710,12 @@
         <v>1696</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1776</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>1777</v>
+        <v>1847</v>
       </c>
     </row>
   </sheetData>
